--- a/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4319301488506332</v>
+        <v>-0.3613232940979192</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4644267052792571</v>
+        <v>-0.4182807561771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.104666121747939</v>
+        <v>-1.098915004388891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8374261665812066</v>
+        <v>-0.7997980353498899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.783944132799673</v>
+        <v>-0.8688299365234615</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8389094655215883</v>
+        <v>-0.9038920636592812</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4398188162754872</v>
+        <v>-0.457587908865816</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5200595035986963</v>
+        <v>-0.4599116876004531</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7446119198318896</v>
+        <v>-0.7551840606019515</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.403403678875321</v>
+        <v>1.223599831673339</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.358029614446474</v>
+        <v>1.366922771774253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1357378555730631</v>
+        <v>-0.1349747880166411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4335439748079122</v>
+        <v>0.4044623680959706</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5299719335993414</v>
+        <v>0.5111427585271939</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3214922559361338</v>
+        <v>0.2515161910192181</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5211432235361186</v>
+        <v>0.5557307225710126</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6550340108602252</v>
+        <v>0.6498437938245318</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03860373663439038</v>
+        <v>0.02506586187424142</v>
       </c>
     </row>
     <row r="7">
@@ -779,26 +779,26 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.8485758647884103</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
-      <c r="F8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8829998313256634</v>
+        <v>-0.9112709467101877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6807712528083919</v>
+        <v>-0.6644143150633032</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7991964824719715</v>
+        <v>-0.7391037522194367</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9276779617785078</v>
+        <v>-0.9173892088681456</v>
       </c>
     </row>
     <row r="9">
@@ -808,26 +808,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>13.16009029544193</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
-      <c r="F9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>2.666477143939313</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>4.430872267810962</v>
+        <v>4.576534765980393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.204081280814782</v>
+        <v>2.280866602747659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.99498485316105</v>
+        <v>2.493823034813469</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.421537392025746</v>
+        <v>2.848884374301189</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4222642443147934</v>
+        <v>0.2932460403790707</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         <v>-0.4178046115271558</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1076789200369771</v>
+        <v>-0.107678920036977</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3961570490969679</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1347499104692019</v>
+        <v>0.1330351760023933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.397566753040393</v>
+        <v>-0.3682563599530164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2677698280504011</v>
+        <v>0.3015507214674483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2292622228326039</v>
+        <v>-0.2360166928879579</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9233909623806947</v>
+        <v>-0.9272615902763152</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6790459579547288</v>
+        <v>-0.6643999072749185</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07098260787016637</v>
+        <v>0.0247912069104173</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5227082669173776</v>
+        <v>-0.5498786544834181</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.04163421415066365</v>
+        <v>-0.06357180956886331</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.052714005495301</v>
+        <v>1.036802885848535</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.263895623887271</v>
+        <v>1.27161540943479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9825954484416808</v>
+        <v>0.9504079724521091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1075789505189631</v>
+        <v>-0.1095416585535621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2744605616047682</v>
+        <v>0.2637488003617593</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8457938412517453</v>
+        <v>0.7367496409972479</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.08337372217585677</v>
+        <v>-0.08333917359808576</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6626611179617189</v>
+        <v>0.6264247793027455</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>-0.8805558623296849</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2269417370509964</v>
+        <v>-0.2269417370509963</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.423336474031664</v>
@@ -985,22 +985,20 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.384519489827182</v>
+        <v>-0.4638755071691127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7568682814481443</v>
+        <v>-0.7941658214861095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01007547605509852</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.02104356480323007</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>-0.1551245920384835</v>
+        <v>-0.1826623736203275</v>
       </c>
     </row>
     <row r="15">
@@ -1014,22 +1012,20 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4.327068846371989</v>
+        <v>3.918493419055147</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.98729966331122</v>
+        <v>1.03458564060082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.96333942060986</v>
+        <v>1.413247426243883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.203004456066307</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>0.4905924799274467</v>
-      </c>
+        <v>5.067325367474372</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>5.36229729444233</v>
+        <v>5.035188790316798</v>
       </c>
     </row>
     <row r="16">
@@ -1059,7 +1055,7 @@
         <v>-0.2421167174313147</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05592414714853215</v>
+        <v>0.05592414714853198</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.3150989992938211</v>
@@ -1079,31 +1075,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.446555318528673</v>
+        <v>-1.398247739577972</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.829747029762897</v>
+        <v>-1.871533587978539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.932800744041472</v>
+        <v>-1.86834567857468</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.545187116967746</v>
+        <v>-1.569489277327462</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.310476118003325</v>
+        <v>-1.487593572900314</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.186390592829821</v>
+        <v>-1.21489569661907</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.118226437754026</v>
+        <v>-1.20921546218462</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.26898529089915</v>
+        <v>-1.275580329540777</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.079583574285459</v>
+        <v>-1.163396689871333</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1110,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9769026211364967</v>
+        <v>0.9730381521462513</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.006656686770088301</v>
+        <v>0.01766522903501524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08920543454624114</v>
+        <v>0.06842471091072695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6620025262343301</v>
+        <v>0.6127716344432398</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8790618989692973</v>
+        <v>0.8222873283780487</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.019732979913182</v>
+        <v>0.9959440900185863</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3642338365994711</v>
+        <v>0.4203522704734818</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2211358744891424</v>
+        <v>0.1584880627265589</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3469686470897284</v>
+        <v>0.3584145509259979</v>
       </c>
     </row>
     <row r="19">
@@ -1164,7 +1160,7 @@
         <v>-0.3219121399049965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07435530297924599</v>
+        <v>0.07435530297924575</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3552964915079453</v>
@@ -1173,7 +1169,7 @@
         <v>-0.5939109459062104</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3649288896909101</v>
+        <v>-0.3649288896909102</v>
       </c>
     </row>
     <row r="20">
@@ -1188,21 +1184,21 @@
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9649293483966138</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8202764976819705</v>
+        <v>-0.7914093035208686</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8740579338960358</v>
+        <v>-0.8527529048681864</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9467678492721203</v>
+        <v>-0.9305729107247872</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7542310654805504</v>
+        <v>-0.803163065678798</v>
       </c>
     </row>
     <row r="21">
@@ -1213,23 +1209,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.432061606643013</v>
+        <v>3.541501326138281</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>1.480122412274668</v>
+        <v>1.024564669650905</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>5.463436326492911</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>0.8647247602844338</v>
+        <v>1.102896493379383</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.012499458575165</v>
+        <v>0.6089385883968427</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.139014316213409</v>
+        <v>0.8673736868159692</v>
       </c>
     </row>
     <row r="22">
@@ -1259,7 +1257,7 @@
         <v>-0.3328163214587661</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.0961988376965507</v>
+        <v>-0.09619883769655078</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1635370753877939</v>
@@ -1279,31 +1277,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1037840309979133</v>
+        <v>-0.08584299048012915</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4613668809852182</v>
+        <v>-0.462673959036732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1574164159189814</v>
+        <v>-0.1510442713590311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3387970209539732</v>
+        <v>-0.3349685886375927</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6888794021917264</v>
+        <v>-0.7126775815368963</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4567086319810327</v>
+        <v>-0.4273039181536697</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1118964314277217</v>
+        <v>-0.1170123850375578</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4833418411603989</v>
+        <v>-0.4876817897556321</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2067449198705544</v>
+        <v>-0.2122037864248234</v>
       </c>
     </row>
     <row r="24">
@@ -1314,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6941605524662984</v>
+        <v>0.7284418975758362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07657258361587554</v>
+        <v>0.07813617022970666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5876181661170061</v>
+        <v>0.5882402598284803</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4274643851649458</v>
+        <v>0.4563370426631654</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.008822179306334811</v>
+        <v>-0.02364838062435666</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2264403092452746</v>
+        <v>0.2347435390975464</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4327316870960323</v>
+        <v>0.4633815173494785</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.05716915000733515</v>
+        <v>-0.02429551295823771</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2862680868215534</v>
+        <v>0.3122797417412154</v>
       </c>
     </row>
     <row r="25">
@@ -1364,7 +1362,7 @@
         <v>-0.6159531270854202</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1780380680895014</v>
+        <v>-0.1780380680895016</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3666146224523346</v>
@@ -1384,31 +1382,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2818127118592109</v>
+        <v>-0.2591473622577823</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9083494810557049</v>
+        <v>-0.9060713313067988</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.378581463389445</v>
+        <v>-0.4097882742347541</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4669213350943797</v>
+        <v>-0.4537194697048171</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8890272366009411</v>
+        <v>-0.8941089977093656</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5824346929905753</v>
+        <v>-0.5641531261117178</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2187780764875302</v>
+        <v>-0.2189293166096461</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8182702802582059</v>
+        <v>-0.823439425868973</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3767272120628224</v>
+        <v>-0.3711805063100206</v>
       </c>
     </row>
     <row r="27">
@@ -1419,31 +1417,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.10497227280236</v>
+        <v>3.538029643588487</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.650729223629368</v>
+        <v>0.8226481687994106</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.158130902668503</v>
+        <v>2.918104302599117</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.415083680091815</v>
+        <v>1.360033223402273</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1306968924803315</v>
+        <v>0.1450352841573944</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7457116004886322</v>
+        <v>0.770430343503585</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.312011890740201</v>
+        <v>1.543580920164222</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.07931266222835111</v>
+        <v>-0.01246869383230538</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8923869459928111</v>
+        <v>1.047688911982385</v>
       </c>
     </row>
     <row r="28">
